--- a/biology/Zoologie/Chilo/Chilo.xlsx
+++ b/biology/Zoologie/Chilo/Chilo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les Chilo (Chilos en français) forment un genre de lépidoptères (papillons) de la famille des crambidés. Certains Chilos sont appelés borer par les anglophones. Ce genre comprend une centaine d'espèces dont les suivantes :
 Chilo agamemnon Bleszynski, 1962
